--- a/Lab2/dot_diag_dadda.xlsx
+++ b/Lab2/dot_diag_dadda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="11">
   <si>
     <t>●</t>
   </si>
@@ -129,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -223,11 +223,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,9 +318,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -374,6 +400,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -954,8 +998,8 @@
   </sheetPr>
   <dimension ref="A1:CL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CL18" sqref="CL18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,150 +1008,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="57"/>
-      <c r="BO1" s="57"/>
-      <c r="BP1" s="57"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+      <c r="BL1" s="56"/>
+      <c r="BM1" s="56"/>
+      <c r="BN1" s="56"/>
+      <c r="BO1" s="56"/>
+      <c r="BP1" s="56"/>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57"/>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57"/>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="57"/>
-      <c r="BL2" s="57"/>
-      <c r="BM2" s="57"/>
-      <c r="BN2" s="57"/>
-      <c r="BO2" s="57"/>
-      <c r="BP2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="56"/>
+      <c r="BL2" s="56"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
+      <c r="BP2" s="56"/>
     </row>
     <row r="3" spans="1:70" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7"/>
@@ -1243,13 +1287,13 @@
       <c r="W4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="25">
+      <c r="X4" s="57">
         <v>1</v>
       </c>
-      <c r="Y4" s="25" t="s">
+      <c r="Y4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="Z4" s="59">
         <v>1</v>
       </c>
       <c r="AA4" s="17" t="s">
@@ -1294,10 +1338,10 @@
       <c r="AN4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AO4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="26" t="s">
+      <c r="AO4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="AQ4" s="3" t="s">
@@ -1443,13 +1487,13 @@
       <c r="W5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="9" t="s">
+      <c r="X5" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="60" t="s">
         <v>0</v>
       </c>
       <c r="AA5" s="9" t="s">
@@ -1642,10 +1686,10 @@
       <c r="X6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Y6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="61" t="s">
         <v>0</v>
       </c>
       <c r="AA6" s="10" t="s">
@@ -3112,114 +3156,114 @@
       <c r="BR15" s="1"/>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="53"/>
-      <c r="AR16" s="53" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="52"/>
+      <c r="AR16" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AS16" s="53"/>
-      <c r="AT16" s="53"/>
-      <c r="AU16" s="53"/>
-      <c r="AV16" s="53"/>
-      <c r="AW16" s="53"/>
-      <c r="AX16" s="53"/>
-      <c r="AY16" s="53"/>
-      <c r="AZ16" s="53"/>
-      <c r="BA16" s="53"/>
-      <c r="BB16" s="53"/>
-      <c r="BC16" s="53"/>
-      <c r="BD16" s="53"/>
-      <c r="BE16" s="53"/>
-      <c r="BF16" s="53"/>
-      <c r="BG16" s="53"/>
-      <c r="BH16" s="53"/>
-      <c r="BI16" s="53"/>
-      <c r="BJ16" s="53"/>
-      <c r="BK16" s="53"/>
-      <c r="BL16" s="53"/>
-      <c r="BM16" s="53"/>
-      <c r="BN16" s="53"/>
-      <c r="BO16" s="53"/>
-      <c r="BP16" s="53"/>
+      <c r="AS16" s="52"/>
+      <c r="AT16" s="52"/>
+      <c r="AU16" s="52"/>
+      <c r="AV16" s="52"/>
+      <c r="AW16" s="52"/>
+      <c r="AX16" s="52"/>
+      <c r="AY16" s="52"/>
+      <c r="AZ16" s="52"/>
+      <c r="BA16" s="52"/>
+      <c r="BB16" s="52"/>
+      <c r="BC16" s="52"/>
+      <c r="BD16" s="52"/>
+      <c r="BE16" s="52"/>
+      <c r="BF16" s="52"/>
+      <c r="BG16" s="52"/>
+      <c r="BH16" s="52"/>
+      <c r="BI16" s="52"/>
+      <c r="BJ16" s="52"/>
+      <c r="BK16" s="52"/>
+      <c r="BL16" s="52"/>
+      <c r="BM16" s="52"/>
+      <c r="BN16" s="52"/>
+      <c r="BO16" s="52"/>
+      <c r="BP16" s="52"/>
       <c r="BQ16" s="1"/>
       <c r="BR16" s="1"/>
     </row>
@@ -3400,7 +3444,7 @@
       <c r="BP18" s="1"/>
       <c r="BQ18" s="1"/>
       <c r="BR18" s="1"/>
-      <c r="CL18" s="28"/>
+      <c r="CL18" s="27"/>
     </row>
     <row r="19" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -3615,7 +3659,7 @@
     </row>
     <row r="22" spans="1:90" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="7"/>
@@ -3725,109 +3769,109 @@
       <c r="O23" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="38">
+      <c r="P23" s="37">
         <v>1</v>
       </c>
-      <c r="Q23" s="39" t="s">
+      <c r="Q23" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="R23" s="39">
+      <c r="R23" s="38">
         <v>1</v>
       </c>
-      <c r="S23" s="39" t="s">
+      <c r="S23" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="T23" s="39">
+      <c r="T23" s="38">
         <v>1</v>
       </c>
-      <c r="U23" s="39" t="s">
+      <c r="U23" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="V23" s="39">
+      <c r="V23" s="38">
         <v>1</v>
       </c>
-      <c r="W23" s="36" t="s">
+      <c r="W23" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="X23" s="36">
+      <c r="X23" s="35">
         <v>1</v>
       </c>
-      <c r="Y23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="33" t="s">
+      <c r="Y23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AY23" s="24" t="s">
@@ -3921,109 +3965,109 @@
       <c r="O24" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="P24" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="R24" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="S24" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="T24" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="U24" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="V24" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="W24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="33" t="s">
+      <c r="P24" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="V24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="W24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AY24" s="24" t="s">
@@ -4116,100 +4160,100 @@
       <c r="P25" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="Q25" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="R25" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="S25" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="T25" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="U25" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="V25" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="W25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="32" t="s">
+      <c r="Q25" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="V25" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="W25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="31" t="s">
         <v>0</v>
       </c>
       <c r="AW25" s="24" t="s">
@@ -4303,97 +4347,97 @@
       <c r="Q26" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="R26" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S26" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="T26" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="U26" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="V26" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="W26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU26" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="33" t="s">
+      <c r="R26" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="T26" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="U26" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="V26" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="W26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AW26" s="24" t="s">
@@ -4475,97 +4519,97 @@
       <c r="Q27" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="R27" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="T27" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="U27" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="V27" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="W27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV27" s="33" t="s">
+      <c r="R27" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="T27" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="U27" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="V27" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="W27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AW27" s="24" t="s">
@@ -4642,88 +4686,88 @@
       <c r="R28" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="S28" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="T28" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="U28" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="V28" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="W28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="35" t="s">
+      <c r="S28" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="U28" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AU28" s="19" t="s">
@@ -4807,85 +4851,85 @@
       <c r="S29" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="T29" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="U29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR29" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS29" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="34" t="s">
+      <c r="T29" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="33" t="s">
         <v>0</v>
       </c>
       <c r="AU29" s="19" t="s">
@@ -4961,85 +5005,85 @@
       <c r="S30" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="T30" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="U30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="34" t="s">
+      <c r="T30" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="33" t="s">
         <v>0</v>
       </c>
       <c r="AU30" s="19" t="s">
@@ -5080,146 +5124,146 @@
       <c r="BP30" s="21"/>
     </row>
     <row r="31" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="S31" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="T31" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="U31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="V31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="W31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="X31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS31" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU31" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV31" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW31" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX31" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY31" s="43"/>
-      <c r="AZ31" s="43" t="s">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="T31" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="V31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="W31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="X31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="42"/>
+      <c r="AZ31" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="BA31" s="43"/>
-      <c r="BB31" s="43"/>
-      <c r="BC31" s="43"/>
-      <c r="BD31" s="43"/>
-      <c r="BE31" s="43"/>
-      <c r="BF31" s="43"/>
-      <c r="BG31" s="43"/>
-      <c r="BH31" s="43"/>
-      <c r="BI31" s="43"/>
-      <c r="BJ31" s="43"/>
-      <c r="BK31" s="43"/>
-      <c r="BL31" s="43"/>
-      <c r="BM31" s="43"/>
-      <c r="BN31" s="43"/>
-      <c r="BO31" s="42"/>
-      <c r="BP31" s="42"/>
+      <c r="BA31" s="42"/>
+      <c r="BB31" s="42"/>
+      <c r="BC31" s="42"/>
+      <c r="BD31" s="42"/>
+      <c r="BE31" s="42"/>
+      <c r="BF31" s="42"/>
+      <c r="BG31" s="42"/>
+      <c r="BH31" s="42"/>
+      <c r="BI31" s="42"/>
+      <c r="BJ31" s="42"/>
+      <c r="BK31" s="42"/>
+      <c r="BL31" s="42"/>
+      <c r="BM31" s="42"/>
+      <c r="BN31" s="42"/>
+      <c r="BO31" s="41"/>
+      <c r="BP31" s="41"/>
     </row>
     <row r="32" spans="1:90" x14ac:dyDescent="0.3">
       <c r="G32" s="22"/>
@@ -5245,73 +5289,73 @@
       <c r="U32" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="V32" s="34" t="s">
+      <c r="V32" s="33" t="s">
         <v>0</v>
       </c>
       <c r="W32" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="X32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="34" t="s">
+      <c r="X32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="33" t="s">
         <v>0</v>
       </c>
       <c r="AS32" s="19" t="s">
@@ -5369,73 +5413,73 @@
       <c r="U33" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="V33" s="33" t="s">
+      <c r="V33" s="32" t="s">
         <v>0</v>
       </c>
       <c r="W33" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="X33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR33" s="34" t="s">
+      <c r="X33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="33" t="s">
         <v>0</v>
       </c>
       <c r="AS33" s="19" t="s">
@@ -5488,64 +5532,64 @@
       <c r="V34" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="W34" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="X34" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO34" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="35" t="s">
+      <c r="W34" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="X34" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AQ34" s="19" t="s">
@@ -5598,7 +5642,9 @@
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
+      <c r="W35" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="X35" s="19" t="s">
         <v>0</v>
       </c>
@@ -5751,7 +5797,7 @@
     </row>
     <row r="37" spans="1:90" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="7"/>
@@ -5845,145 +5891,145 @@
       <c r="I38" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J38" s="40">
+      <c r="J38" s="39">
         <v>1</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="K38" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="L38" s="36">
+      <c r="L38" s="35">
         <v>1</v>
       </c>
-      <c r="M38" s="36" t="s">
+      <c r="M38" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="N38" s="36">
+      <c r="N38" s="35">
         <v>1</v>
       </c>
-      <c r="O38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB38" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC38" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD38" s="34" t="s">
+      <c r="O38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD38" s="33" t="s">
         <v>0</v>
       </c>
       <c r="BE38" s="19" t="s">
@@ -6043,145 +6089,145 @@
       <c r="I39" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J39" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC39" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD39" s="34" t="s">
+      <c r="J39" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="33" t="s">
         <v>0</v>
       </c>
       <c r="BE39" s="19" t="s">
@@ -6240,136 +6286,136 @@
       <c r="J40" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB40" s="35" t="s">
+      <c r="K40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="34" t="s">
         <v>0</v>
       </c>
       <c r="BC40" s="19" t="s">
@@ -6403,7 +6449,7 @@
       <c r="BM40" s="18"/>
       <c r="BN40" s="18"/>
       <c r="BO40" s="21"/>
-      <c r="CL40" s="28"/>
+      <c r="CL40" s="27"/>
     </row>
     <row r="41" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
@@ -6429,133 +6475,133 @@
       <c r="K41" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="L41" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA41" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB41" s="34" t="s">
+      <c r="L41" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA41" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="33" t="s">
         <v>0</v>
       </c>
       <c r="BC41" s="19" t="s">
@@ -6606,133 +6652,133 @@
       <c r="K42" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="L42" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA42" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB42" s="34" t="s">
+      <c r="L42" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA42" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB42" s="33" t="s">
         <v>0</v>
       </c>
       <c r="BC42" s="19" t="s">
@@ -6760,170 +6806,170 @@
       <c r="BO42" s="21"/>
     </row>
     <row r="43" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K43" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="N43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="O43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="P43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="R43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="S43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="T43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="U43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="V43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="W43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="X43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ43" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA43" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB43" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC43" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD43" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE43" s="49"/>
-      <c r="BF43" s="49" t="s">
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="S43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="T43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="U43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="V43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="W43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="X43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA43" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB43" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC43" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD43" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE43" s="48"/>
+      <c r="BF43" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="BG43" s="49"/>
-      <c r="BH43" s="49"/>
-      <c r="BI43" s="49"/>
-      <c r="BJ43" s="49"/>
-      <c r="BK43" s="49"/>
-      <c r="BL43" s="49"/>
-      <c r="BM43" s="49"/>
-      <c r="BN43" s="49"/>
-      <c r="BO43" s="48"/>
-      <c r="BP43" s="50"/>
+      <c r="BG43" s="48"/>
+      <c r="BH43" s="48"/>
+      <c r="BI43" s="48"/>
+      <c r="BJ43" s="48"/>
+      <c r="BK43" s="48"/>
+      <c r="BL43" s="48"/>
+      <c r="BM43" s="48"/>
+      <c r="BN43" s="48"/>
+      <c r="BO43" s="47"/>
+      <c r="BP43" s="49"/>
     </row>
     <row r="44" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
@@ -6943,121 +6989,121 @@
       <c r="M44" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="N44" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY44" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ44" s="34" t="s">
+      <c r="N44" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY44" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="33" t="s">
         <v>0</v>
       </c>
       <c r="BA44" s="19" t="s">
@@ -7096,121 +7142,121 @@
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
-      <c r="N45" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX45" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY45" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ45" s="34" t="s">
+      <c r="N45" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ45" s="33" t="s">
         <v>0</v>
       </c>
       <c r="BA45" s="18"/>
@@ -7246,112 +7292,112 @@
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
       <c r="N46" s="21"/>
-      <c r="O46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="36" t="s">
+      <c r="O46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AK46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL46" s="36" t="s">
+      <c r="AK46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AM46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN46" s="36" t="s">
+      <c r="AM46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AO46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP46" s="36" t="s">
+      <c r="AO46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AQ46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR46" s="36" t="s">
+      <c r="AQ46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AS46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT46" s="36" t="s">
+      <c r="AS46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AU46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV46" s="36" t="s">
+      <c r="AU46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV46" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AW46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX46" s="36" t="s">
+      <c r="AW46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX46" s="35" t="s">
         <v>1</v>
       </c>
       <c r="AY46" s="18"/>
@@ -7445,7 +7491,7 @@
     </row>
     <row r="48" spans="1:90" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="7"/>
@@ -7527,169 +7573,169 @@
       <c r="E49" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="40">
+      <c r="F49" s="39">
         <v>1</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49" s="35">
         <v>1</v>
       </c>
-      <c r="I49" s="36" t="s">
+      <c r="I49" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF49" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG49" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH49" s="34" t="s">
+      <c r="J49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF49" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG49" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH49" s="33" t="s">
         <v>0</v>
       </c>
       <c r="BI49" s="19" t="s">
@@ -7725,169 +7771,169 @@
       <c r="E50" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F50" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF50" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG50" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH50" s="34" t="s">
+      <c r="F50" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG50" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH50" s="33" t="s">
         <v>0</v>
       </c>
       <c r="BI50" s="19" t="s">
@@ -7922,160 +7968,160 @@
       <c r="F51" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE51" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF51" s="35" t="s">
+      <c r="G51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF51" s="34" t="s">
         <v>0</v>
       </c>
       <c r="BG51" s="19" t="s">
@@ -8100,186 +8146,186 @@
       <c r="BP51" s="21"/>
     </row>
     <row r="52" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="I52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="K52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="L52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="M52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="N52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="O52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="P52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="R52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="S52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="T52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="U52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="V52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="W52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="X52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD52" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE52" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF52" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG52" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH52" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI52" s="43"/>
-      <c r="BJ52" s="43" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="L52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="P52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="R52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="S52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="T52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="U52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="V52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="W52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="X52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD52" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE52" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF52" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG52" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH52" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI52" s="42"/>
+      <c r="BJ52" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="BK52" s="43"/>
-      <c r="BL52" s="43"/>
-      <c r="BM52" s="43"/>
-      <c r="BN52" s="43"/>
-      <c r="BO52" s="42"/>
-      <c r="BP52" s="42"/>
+      <c r="BK52" s="42"/>
+      <c r="BL52" s="42"/>
+      <c r="BM52" s="42"/>
+      <c r="BN52" s="42"/>
+      <c r="BO52" s="41"/>
+      <c r="BP52" s="41"/>
     </row>
     <row r="53" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
@@ -8289,157 +8335,157 @@
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
       <c r="G53" s="18"/>
-      <c r="H53" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD53" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE53" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF53" s="34" t="s">
+      <c r="H53" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD53" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE53" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF53" s="33" t="s">
         <v>0</v>
       </c>
       <c r="BG53" s="18"/>
@@ -8464,148 +8510,148 @@
       <c r="F54" s="21"/>
       <c r="G54" s="18"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ54" s="35" t="s">
+      <c r="I54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="BA54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB54" s="35" t="s">
+      <c r="BA54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB54" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="BC54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD54" s="35" t="s">
+      <c r="BC54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD54" s="34" t="s">
         <v>0</v>
       </c>
       <c r="BE54" s="18"/>
@@ -8695,7 +8741,7 @@
     </row>
     <row r="56" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="7"/>
@@ -8771,181 +8817,181 @@
       <c r="C57" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="40">
+      <c r="D57" s="39">
         <v>1</v>
       </c>
-      <c r="E57" s="36" t="s">
+      <c r="E57" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH57" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI57" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ57" s="34" t="s">
+      <c r="F57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH57" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI57" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ57" s="33" t="s">
         <v>0</v>
       </c>
       <c r="BK57" s="19" t="s">
@@ -8969,181 +9015,181 @@
       <c r="C58" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH58" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI58" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ58" s="34" t="s">
+      <c r="D58" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI58" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ58" s="33" t="s">
         <v>0</v>
       </c>
       <c r="BK58" s="19" t="s">
@@ -9166,172 +9212,172 @@
       <c r="D59" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH59" s="35" t="s">
+      <c r="E59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH59" s="34" t="s">
         <v>0</v>
       </c>
       <c r="BI59" s="19" t="s">
@@ -9350,188 +9396,188 @@
       <c r="BP59" s="20"/>
     </row>
     <row r="60" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="K60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="O60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="P60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="R60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="S60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="T60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="U60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="V60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="W60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="X60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH60" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI60" s="29"/>
-      <c r="BJ60" s="29" t="s">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="M60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="N60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="U60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="V60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="W60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="X60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI60" s="28"/>
+      <c r="BJ60" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="BK60" s="29"/>
-      <c r="BL60" s="29"/>
-      <c r="BM60" s="29"/>
-      <c r="BN60" s="29"/>
-      <c r="BO60" s="30"/>
-      <c r="BP60" s="30"/>
+      <c r="BK60" s="28"/>
+      <c r="BL60" s="28"/>
+      <c r="BM60" s="28"/>
+      <c r="BN60" s="28"/>
+      <c r="BO60" s="29"/>
+      <c r="BP60" s="29"/>
     </row>
     <row r="61" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
@@ -9568,7 +9614,7 @@
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
-      <c r="AI61" s="55"/>
+      <c r="AI61" s="54"/>
       <c r="AJ61" s="19"/>
       <c r="AK61" s="19"/>
       <c r="AL61" s="19"/>
@@ -9605,7 +9651,7 @@
     </row>
     <row r="62" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="7"/>
@@ -9678,190 +9724,190 @@
     <row r="63" spans="1:68" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ63" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK63" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL63" s="34" t="s">
+      <c r="D63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK63" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL63" s="33" t="s">
         <v>0</v>
       </c>
       <c r="BM63" s="19" t="s">
@@ -9874,382 +9920,382 @@
       <c r="BP63" s="20"/>
     </row>
     <row r="64" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="H64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="I64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="J64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="K64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="L64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="M64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="N64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="O64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="P64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="R64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="S64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="T64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="U64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="V64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="W64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="X64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ64" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK64" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL64" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM64" s="43"/>
-      <c r="BN64" s="43" t="s">
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="L64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="P64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="R64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="T64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="U64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="V64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="W64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="X64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ64" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK64" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL64" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM64" s="42"/>
+      <c r="BN64" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="BO64" s="42"/>
-      <c r="BP64" s="42"/>
+      <c r="BO64" s="41"/>
+      <c r="BP64" s="41"/>
     </row>
     <row r="65" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
-      <c r="C65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="U65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="V65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="X65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI65" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ65" s="35" t="s">
+      <c r="C65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ65" s="34" t="s">
         <v>1</v>
       </c>
       <c r="BK65" s="18"/>
@@ -10263,7 +10309,7 @@
     </row>
     <row r="67" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7"/>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="7"/>

--- a/Lab2/dot_diag_dadda.xlsx
+++ b/Lab2/dot_diag_dadda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="76">
   <si>
     <t>●</t>
   </si>
@@ -57,6 +57,201 @@
   </si>
   <si>
     <t>DADDA REDUCTION ALGORITHM - DOT NOTATION DIAGRAM</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B64</t>
+  </si>
+  <si>
+    <t>B63</t>
+  </si>
+  <si>
+    <t>B62</t>
+  </si>
+  <si>
+    <t>B61</t>
+  </si>
+  <si>
+    <t>B60</t>
+  </si>
+  <si>
+    <t>B59</t>
+  </si>
+  <si>
+    <t>B58</t>
+  </si>
+  <si>
+    <t>B57</t>
+  </si>
+  <si>
+    <t>B56</t>
+  </si>
+  <si>
+    <t>B55</t>
+  </si>
+  <si>
+    <t>B54</t>
+  </si>
+  <si>
+    <t>B53</t>
+  </si>
+  <si>
+    <t>B52</t>
+  </si>
+  <si>
+    <t>B51</t>
+  </si>
+  <si>
+    <t>B50</t>
+  </si>
+  <si>
+    <t>B49</t>
+  </si>
+  <si>
+    <t>B48</t>
+  </si>
+  <si>
+    <t>B47</t>
+  </si>
+  <si>
+    <t>B46</t>
+  </si>
+  <si>
+    <t>B45</t>
+  </si>
+  <si>
+    <t>B44</t>
+  </si>
+  <si>
+    <t>B43</t>
+  </si>
+  <si>
+    <t>B42</t>
+  </si>
+  <si>
+    <t>B41</t>
+  </si>
+  <si>
+    <t>B40</t>
+  </si>
+  <si>
+    <t>B39</t>
+  </si>
+  <si>
+    <t>B38</t>
+  </si>
+  <si>
+    <t>B37</t>
+  </si>
+  <si>
+    <t>B36</t>
+  </si>
+  <si>
+    <t>B35</t>
+  </si>
+  <si>
+    <t>B34</t>
+  </si>
+  <si>
+    <t>B33</t>
+  </si>
+  <si>
+    <t>B32</t>
+  </si>
+  <si>
+    <t>B31</t>
+  </si>
+  <si>
+    <t>B30</t>
+  </si>
+  <si>
+    <t>B29</t>
+  </si>
+  <si>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>B25</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B2</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1206,8 @@
   </sheetPr>
   <dimension ref="A1:CL85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:BN22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85:BN85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,74 +1358,204 @@
       <c r="BP2" s="65"/>
     </row>
     <row r="3" spans="1:70" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7"/>
-      <c r="BD3" s="7"/>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="7"/>
-      <c r="BG3" s="7"/>
-      <c r="BH3" s="7"/>
-      <c r="BI3" s="7"/>
-      <c r="BJ3" s="7"/>
-      <c r="BK3" s="7"/>
-      <c r="BL3" s="7"/>
-      <c r="BM3" s="7"/>
-      <c r="BN3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="BO3" s="7"/>
       <c r="BP3" s="7"/>
     </row>
@@ -4074,74 +4399,204 @@
       <c r="BR24" s="1"/>
     </row>
     <row r="25" spans="1:90" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
-      <c r="AU25" s="23"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="23"/>
-      <c r="AY25" s="23"/>
-      <c r="AZ25" s="23"/>
-      <c r="BA25" s="23"/>
-      <c r="BB25" s="23"/>
-      <c r="BC25" s="23"/>
-      <c r="BD25" s="23"/>
-      <c r="BE25" s="23"/>
-      <c r="BF25" s="23"/>
-      <c r="BG25" s="23"/>
-      <c r="BH25" s="23"/>
-      <c r="BI25" s="23"/>
-      <c r="BJ25" s="23"/>
-      <c r="BK25" s="23"/>
-      <c r="BL25" s="23"/>
-      <c r="BM25" s="23"/>
-      <c r="BN25" s="23"/>
+      <c r="B25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN25" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="BO25" s="23"/>
       <c r="BP25" s="23"/>
     </row>
@@ -6605,74 +7060,204 @@
       <c r="BP42" s="20"/>
     </row>
     <row r="43" spans="1:90" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-      <c r="B43" s="26" t="s">
+      <c r="A43" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
-      <c r="AA43" s="23"/>
-      <c r="AB43" s="23"/>
-      <c r="AC43" s="23"/>
-      <c r="AD43" s="23"/>
-      <c r="AE43" s="23"/>
-      <c r="AF43" s="23"/>
-      <c r="AG43" s="23"/>
-      <c r="AH43" s="23"/>
-      <c r="AI43" s="23"/>
-      <c r="AJ43" s="23"/>
-      <c r="AK43" s="23"/>
-      <c r="AL43" s="23"/>
-      <c r="AM43" s="23"/>
-      <c r="AN43" s="23"/>
-      <c r="AO43" s="23"/>
-      <c r="AP43" s="23"/>
-      <c r="AQ43" s="23"/>
-      <c r="AR43" s="23"/>
-      <c r="AS43" s="23"/>
-      <c r="AT43" s="23"/>
-      <c r="AU43" s="23"/>
-      <c r="AV43" s="23"/>
-      <c r="AW43" s="23"/>
-      <c r="AX43" s="23"/>
-      <c r="AY43" s="23"/>
-      <c r="AZ43" s="23"/>
-      <c r="BA43" s="23"/>
-      <c r="BB43" s="23"/>
-      <c r="BC43" s="23"/>
-      <c r="BD43" s="23"/>
-      <c r="BE43" s="23"/>
-      <c r="BF43" s="23"/>
-      <c r="BG43" s="23"/>
-      <c r="BH43" s="23"/>
-      <c r="BI43" s="23"/>
-      <c r="BJ43" s="23"/>
-      <c r="BK43" s="23"/>
-      <c r="BL43" s="23"/>
-      <c r="BM43" s="23"/>
-      <c r="BN43" s="23"/>
+      <c r="B43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB43" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH43" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT43" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD43" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG43" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH43" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI43" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK43" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN43" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="BO43" s="23"/>
       <c r="BP43" s="23"/>
     </row>
@@ -8632,74 +9217,204 @@
       <c r="BO55" s="21"/>
     </row>
     <row r="56" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="7"/>
-      <c r="B56" s="26" t="s">
+      <c r="A56" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="7"/>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
-      <c r="AC56" s="7"/>
-      <c r="AD56" s="7"/>
-      <c r="AE56" s="7"/>
-      <c r="AF56" s="7"/>
-      <c r="AG56" s="7"/>
-      <c r="AH56" s="7"/>
-      <c r="AI56" s="7"/>
-      <c r="AJ56" s="7"/>
-      <c r="AK56" s="7"/>
-      <c r="AL56" s="7"/>
-      <c r="AM56" s="7"/>
-      <c r="AN56" s="7"/>
-      <c r="AO56" s="7"/>
-      <c r="AP56" s="7"/>
-      <c r="AQ56" s="7"/>
-      <c r="AR56" s="7"/>
-      <c r="AS56" s="7"/>
-      <c r="AT56" s="7"/>
-      <c r="AU56" s="7"/>
-      <c r="AV56" s="7"/>
-      <c r="AW56" s="7"/>
-      <c r="AX56" s="7"/>
-      <c r="AY56" s="7"/>
-      <c r="AZ56" s="7"/>
-      <c r="BA56" s="7"/>
-      <c r="BB56" s="7"/>
-      <c r="BC56" s="7"/>
-      <c r="BD56" s="7"/>
-      <c r="BE56" s="7"/>
-      <c r="BF56" s="7"/>
-      <c r="BG56" s="7"/>
-      <c r="BH56" s="7"/>
-      <c r="BI56" s="7"/>
-      <c r="BJ56" s="7"/>
-      <c r="BK56" s="7"/>
-      <c r="BL56" s="7"/>
-      <c r="BM56" s="7"/>
-      <c r="BN56" s="7"/>
+      <c r="B56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V56" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X56" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y56" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z56" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB56" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC56" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD56" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE56" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF56" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG56" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH56" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI56" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ56" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK56" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL56" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM56" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ56" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR56" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS56" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT56" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU56" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV56" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW56" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX56" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY56" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ56" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA56" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB56" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC56" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD56" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE56" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG56" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH56" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI56" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ56" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK56" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL56" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN56" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="BO56" s="7"/>
       <c r="BP56" s="7"/>
     </row>
@@ -10217,74 +10932,204 @@
       <c r="BP65" s="20"/>
     </row>
     <row r="66" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="7"/>
-      <c r="B66" s="26" t="s">
+      <c r="A66" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
-      <c r="Z66" s="7"/>
-      <c r="AA66" s="7"/>
-      <c r="AB66" s="7"/>
-      <c r="AC66" s="7"/>
-      <c r="AD66" s="7"/>
-      <c r="AE66" s="7"/>
-      <c r="AF66" s="7"/>
-      <c r="AG66" s="7"/>
-      <c r="AH66" s="7"/>
-      <c r="AI66" s="7"/>
-      <c r="AJ66" s="7"/>
-      <c r="AK66" s="7"/>
-      <c r="AL66" s="7"/>
-      <c r="AM66" s="7"/>
-      <c r="AN66" s="7"/>
-      <c r="AO66" s="7"/>
-      <c r="AP66" s="7"/>
-      <c r="AQ66" s="7"/>
-      <c r="AR66" s="7"/>
-      <c r="AS66" s="7"/>
-      <c r="AT66" s="7"/>
-      <c r="AU66" s="7"/>
-      <c r="AV66" s="7"/>
-      <c r="AW66" s="7"/>
-      <c r="AX66" s="7"/>
-      <c r="AY66" s="7"/>
-      <c r="AZ66" s="7"/>
-      <c r="BA66" s="7"/>
-      <c r="BB66" s="7"/>
-      <c r="BC66" s="7"/>
-      <c r="BD66" s="7"/>
-      <c r="BE66" s="7"/>
-      <c r="BF66" s="7"/>
-      <c r="BG66" s="7"/>
-      <c r="BH66" s="7"/>
-      <c r="BI66" s="7"/>
-      <c r="BJ66" s="7"/>
-      <c r="BK66" s="7"/>
-      <c r="BL66" s="7"/>
-      <c r="BM66" s="7"/>
-      <c r="BN66" s="7"/>
+      <c r="B66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S66" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T66" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U66" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V66" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W66" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X66" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y66" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z66" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA66" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB66" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC66" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD66" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE66" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF66" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG66" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH66" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI66" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ66" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK66" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL66" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM66" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN66" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO66" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP66" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ66" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR66" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS66" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU66" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV66" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW66" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX66" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY66" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ66" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA66" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB66" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC66" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD66" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE66" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF66" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG66" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH66" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI66" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ66" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK66" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL66" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN66" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="BO66" s="7"/>
       <c r="BP66" s="7"/>
     </row>
@@ -11461,74 +12306,204 @@
       <c r="BP73" s="21"/>
     </row>
     <row r="74" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="7"/>
-      <c r="B74" s="26" t="s">
+      <c r="A74" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="7"/>
-      <c r="X74" s="7"/>
-      <c r="Y74" s="7"/>
-      <c r="Z74" s="7"/>
-      <c r="AA74" s="7"/>
-      <c r="AB74" s="7"/>
-      <c r="AC74" s="7"/>
-      <c r="AD74" s="7"/>
-      <c r="AE74" s="7"/>
-      <c r="AF74" s="7"/>
-      <c r="AG74" s="7"/>
-      <c r="AH74" s="7"/>
-      <c r="AI74" s="7"/>
-      <c r="AJ74" s="7"/>
-      <c r="AK74" s="7"/>
-      <c r="AL74" s="7"/>
-      <c r="AM74" s="7"/>
-      <c r="AN74" s="7"/>
-      <c r="AO74" s="7"/>
-      <c r="AP74" s="7"/>
-      <c r="AQ74" s="7"/>
-      <c r="AR74" s="7"/>
-      <c r="AS74" s="7"/>
-      <c r="AT74" s="7"/>
-      <c r="AU74" s="7"/>
-      <c r="AV74" s="7"/>
-      <c r="AW74" s="7"/>
-      <c r="AX74" s="7"/>
-      <c r="AY74" s="7"/>
-      <c r="AZ74" s="7"/>
-      <c r="BA74" s="7"/>
-      <c r="BB74" s="7"/>
-      <c r="BC74" s="7"/>
-      <c r="BD74" s="7"/>
-      <c r="BE74" s="7"/>
-      <c r="BF74" s="7"/>
-      <c r="BG74" s="7"/>
-      <c r="BH74" s="7"/>
-      <c r="BI74" s="7"/>
-      <c r="BJ74" s="7"/>
-      <c r="BK74" s="7"/>
-      <c r="BL74" s="7"/>
-      <c r="BM74" s="7"/>
-      <c r="BN74" s="7"/>
+      <c r="B74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R74" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S74" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T74" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U74" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V74" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W74" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X74" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y74" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z74" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA74" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB74" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC74" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD74" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE74" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF74" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG74" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH74" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI74" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ74" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK74" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL74" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM74" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO74" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP74" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ74" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR74" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS74" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT74" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU74" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV74" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW74" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX74" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY74" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ74" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA74" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB74" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC74" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD74" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE74" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF74" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG74" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH74" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI74" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ74" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK74" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL74" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN74" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="BO74" s="7"/>
       <c r="BP74" s="7"/>
     </row>
@@ -12381,74 +13356,204 @@
       </c>
     </row>
     <row r="81" spans="1:68" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="7"/>
-      <c r="B81" s="26" t="s">
+      <c r="A81" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
-      <c r="W81" s="7"/>
-      <c r="X81" s="7"/>
-      <c r="Y81" s="7"/>
-      <c r="Z81" s="7"/>
-      <c r="AA81" s="7"/>
-      <c r="AB81" s="7"/>
-      <c r="AC81" s="7"/>
-      <c r="AD81" s="7"/>
-      <c r="AE81" s="7"/>
-      <c r="AF81" s="7"/>
-      <c r="AG81" s="7"/>
-      <c r="AH81" s="7"/>
-      <c r="AI81" s="7"/>
-      <c r="AJ81" s="7"/>
-      <c r="AK81" s="7"/>
-      <c r="AL81" s="7"/>
-      <c r="AM81" s="7"/>
-      <c r="AN81" s="7"/>
-      <c r="AO81" s="7"/>
-      <c r="AP81" s="7"/>
-      <c r="AQ81" s="7"/>
-      <c r="AR81" s="7"/>
-      <c r="AS81" s="7"/>
-      <c r="AT81" s="7"/>
-      <c r="AU81" s="7"/>
-      <c r="AV81" s="7"/>
-      <c r="AW81" s="7"/>
-      <c r="AX81" s="7"/>
-      <c r="AY81" s="7"/>
-      <c r="AZ81" s="7"/>
-      <c r="BA81" s="7"/>
-      <c r="BB81" s="7"/>
-      <c r="BC81" s="7"/>
-      <c r="BD81" s="7"/>
-      <c r="BE81" s="7"/>
-      <c r="BF81" s="7"/>
-      <c r="BG81" s="7"/>
-      <c r="BH81" s="7"/>
-      <c r="BI81" s="7"/>
-      <c r="BJ81" s="7"/>
-      <c r="BK81" s="7"/>
-      <c r="BL81" s="7"/>
-      <c r="BM81" s="7"/>
-      <c r="BN81" s="7"/>
+      <c r="B81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q81" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R81" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S81" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T81" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U81" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V81" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W81" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X81" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y81" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z81" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA81" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB81" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC81" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE81" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF81" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG81" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH81" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI81" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ81" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK81" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL81" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM81" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN81" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO81" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP81" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ81" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR81" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS81" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT81" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU81" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV81" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW81" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY81" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ81" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA81" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB81" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC81" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD81" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE81" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF81" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG81" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH81" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI81" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ81" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK81" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL81" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN81" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="BO81" s="7"/>
       <c r="BP81" s="7"/>
     </row>
